--- a/data/sysml2/3/owl/ScenarioElement_Prop.xlsx
+++ b/data/sysml2/3/owl/ScenarioElement_Prop.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,12 +456,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
@@ -478,12 +478,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
@@ -500,12 +500,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -522,12 +522,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -544,12 +544,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
@@ -566,12 +566,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
@@ -588,12 +588,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -610,12 +610,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
@@ -627,17 +627,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RoadMaintenanceConditon</t>
+          <t>DamageConditon</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
@@ -649,17 +649,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RoadConstrucetionCondition</t>
+          <t>PollutionCondition</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
@@ -671,17 +671,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TravelTime</t>
+          <t>VehicleType</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
@@ -693,17 +693,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TrafficCapacity</t>
+          <t>CombustionCondition</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
@@ -715,17 +715,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SpeedLimit</t>
+          <t>SpillCondition</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
@@ -737,17 +737,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>VehicleType</t>
+          <t>DrivingDirection</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
@@ -759,17 +759,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CombustionCondition</t>
+          <t>VehiclePosition</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
@@ -781,17 +781,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SpillCondition</t>
+          <t>VehicleSpeed</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -803,17 +803,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DrivingDirection</t>
+          <t>DamageCondition</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
@@ -825,17 +825,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>VehiclePosition</t>
+          <t>CollisionCondition</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
@@ -847,17 +847,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>VehicleSpeed</t>
+          <t>WeatherType</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>气象</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
@@ -869,17 +869,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DamageCondition</t>
+          <t>Rainfall</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>气象</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -891,17 +891,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RoadDamageCondition</t>
+          <t>Visibility</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>气象</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PollutionCondition</t>
+          <t>WindSpeed</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>气象</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -935,17 +935,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WeatherType</t>
+          <t>WindForce</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>气象</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -957,17 +957,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Rainfall</t>
+          <t>SnowfallIntensity</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>气象</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Visibility</t>
+          <t>BreakdownCondition</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1001,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WindSpeed</t>
+          <t>RollOverCondition</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
@@ -1023,17 +1023,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WindForce</t>
+          <t>AbnormalSpeedCondition</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
@@ -1045,17 +1045,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SnowfallIntensity</t>
+          <t>IIIegalLaneOccupationCondition</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
@@ -1067,17 +1067,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CollisionCondition</t>
+          <t>EmergencyPeriod</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
@@ -1089,17 +1089,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BreakdownCondition</t>
+          <t>BehaviorType</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>674675-抢修</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
@@ -1111,17 +1111,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>RollOverCondition</t>
+          <t>ImplementationCondition</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>674675-抢修</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
@@ -1133,17 +1133,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AbnormalSpeedCondition</t>
+          <t>Duration</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>674675-抢修</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>IIIegalLaneOccupationCondition</t>
+          <t>ResourceType</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>123445-物资</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
@@ -1177,17 +1177,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PlanName</t>
+          <t>ResourceUsageCondition</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>32635536</t>
+          <t>123445-物资</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
@@ -1199,17 +1199,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ResourceType</t>
+          <t>ResourceQuantityOrQuality</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>123445-物资</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1221,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ResourceUsageCondition</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>123445-物资</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
@@ -1243,85 +1243,61 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ResourceQuantityOrQuality</t>
+          <t>PlanName</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3256</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>DataProperty</t>
+          <t>ObjectProperty</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BehaviorType</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>&lt;class 'int'&gt;</t>
-        </is>
-      </c>
+          <t>associateWith</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DataProperty</t>
+          <t>ObjectProperty</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ImplementationCondition</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>&lt;class 'int'&gt;</t>
-        </is>
-      </c>
+          <t>consistComposition</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>DataProperty</t>
+          <t>ObjectProperty</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Duration</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>&lt;class 'int'&gt;</t>
-        </is>
-      </c>
+          <t>exhibitState</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1331,7 +1307,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>associateWith</t>
+          <t>hasEffectOn</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1345,7 +1321,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>consistComposition</t>
+          <t>stateTransform</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1359,11 +1335,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>exhibitState</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
+          <t>associateRoad</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Road</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1373,11 +1357,19 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>hasEffectOn</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
+          <t>CollideTransform</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DriveState</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>CollideState</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1387,11 +1379,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>stateTransform</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+          <t>ExplodeTransform</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CollidedState</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>ExplodeState</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1401,19 +1401,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CollideTransform</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>DriveState</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>CollideState</t>
-        </is>
-      </c>
+          <t>hasVehicleExplosionEffectOn</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1423,19 +1415,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ExplodeTransform</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>CollidedState</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>ExplodeState</t>
-        </is>
-      </c>
+          <t>hasVehicleDepartureEffectOn</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1445,15 +1429,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>hasCollideEffectOn</t>
+          <t>hasExplodeEffectOn</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1463,11 +1443,15 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>hasExplodeEffectOn</t>
+          <t>hasSpillEffectOn</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5235</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1477,15 +1461,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>hasSpillEffectOn</t>
+          <t>hasVehicleSpillageEffectOn</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1495,7 +1475,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>hasVehicleDepartureEffectOn</t>
+          <t>hasVehicleSpeedChangeEffectOn</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1509,7 +1489,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>hasVehicleExplosionEffectOn</t>
+          <t>hasVehicleTransportEffectOn</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1523,11 +1503,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>hasVehicleMotionEffectOn</t>
+          <t>hasCollideEffectOn</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1537,7 +1521,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>hasVehicleSpeedChangeEffectOn</t>
+          <t>hasVehicleMotionEffectOn</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1551,11 +1535,19 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>hasVehicleSpillageEffectOn</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
+          <t>consistpassenger</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>People</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1565,11 +1557,19 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>hasVehicleTransportEffectOn</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+          <t>SpillTransform</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CollideState</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>SpillState</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1579,19 +1579,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>consistIncludedLanes</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>IncludedLanes</t>
-        </is>
-      </c>
+          <t>hasVehicleLaneChangeEffectOn</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1601,19 +1593,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>consistIncludedFacilities</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>IncludedFacilities</t>
-        </is>
-      </c>
+          <t>hasVehicleBreakdownEffectOn</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1623,19 +1607,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>consistVehicleCargo</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>VehicleCargo</t>
-        </is>
-      </c>
+          <t>hasVehicleTurningEffectOn</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1645,19 +1621,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>consistVehiclePassengers</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>VehiclePassengers</t>
-        </is>
-      </c>
+          <t>hasVehicleCollisionEffectOn</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1667,19 +1635,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>consistVehicleComponents</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>VehicleComponents</t>
-        </is>
-      </c>
+          <t>hasVehicleOverturnEffectOn</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1689,17 +1649,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SpillTransform</t>
+          <t>associate123445-救助</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CollideState</t>
+          <t>123445-物资</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SpillState</t>
+          <t>123445-救助</t>
         </is>
       </c>
     </row>
@@ -1711,11 +1671,19 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>hasVehicleBreakdownEffectOn</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
+          <t>associate3256-牵引</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>3256-人员</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3256-牵引</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1725,11 +1693,19 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>hasVehicleCollisionEffectOn</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+          <t>associate3256-物资</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>3256</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3256-物资</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1739,11 +1715,19 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>hasVehicleLaneChangeEffectOn</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
+          <t>associate3256-人员</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>3256</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3256-人员</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1753,11 +1737,19 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>hasVehicleOverturnEffectOn</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
+          <t>associate3256-救助</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>3256</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3256-救助</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1767,11 +1759,19 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>hasVehicleTurningEffectOn</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
+          <t>associate123445-物资</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>123445</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>123445-物资</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1781,13 +1781,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>associate人员</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
+          <t>associate674675-类型B</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>674675</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>人员</t>
+          <t>674675-类型B</t>
         </is>
       </c>
     </row>
@@ -1799,13 +1803,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>associate抢修</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
+          <t>associate674675-医生</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>674675</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>抢修</t>
+          <t>674675-医生</t>
         </is>
       </c>
     </row>
@@ -1817,13 +1825,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>associate救助</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
+          <t>associate674675-人员</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>674675</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>救助</t>
+          <t>674675-人员</t>
         </is>
       </c>
     </row>
@@ -1835,13 +1847,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>associate消防</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
+          <t>associate674675-救助</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>674675</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>消防</t>
+          <t>674675-救助</t>
         </is>
       </c>
     </row>
@@ -1853,13 +1869,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>associate牵引</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
+          <t>associate674675-牵引</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>674675</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>牵引</t>
+          <t>674675-牵引</t>
         </is>
       </c>
     </row>
@@ -1871,17 +1891,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Aid:ActionTransform</t>
+          <t>associate674675-抢修</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>idleState</t>
+          <t>674675</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>implementState</t>
+          <t>674675-抢修</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1913,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>FireFighting:ActionTransform</t>
+          <t>Rescue:ActionTransform</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1915,7 +1935,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Rescue:ActionTransform</t>
+          <t>FireFighting:ActionTransform</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1959,11 +1979,19 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>hasActionEffectOn</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
+          <t>Aid:ActionTransform</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>idleState</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>implementState</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1973,7 +2001,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>hasFirefightingEffectOn</t>
+          <t>hasRoadRepairEffectOn</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -1987,7 +2015,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>hasPersonnalRescueEffectOn</t>
+          <t>hasRoadControlEffectOn</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -2001,7 +2029,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>hasRoadCleaningEffectOn</t>
+          <t>hasFirefightingEffectOn</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -2015,7 +2043,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>hasRoadControlEffectOn</t>
+          <t>hasVehicleTowingEffectOn</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -2029,7 +2057,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>hasRoadRepairEffectOn</t>
+          <t>hasActionEffectOn</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -2043,11 +2071,25 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>hasVehicleTowingEffectOn</t>
+          <t>hasPersonnalRescueEffectOn</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>hasRoadCleaningEffectOn</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/sysml2/3/owl/ScenarioElement_Prop.xlsx
+++ b/data/sysml2/3/owl/ScenarioElement_Prop.xlsx
@@ -676,7 +676,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1089,12 +1089,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BehaviorType</t>
+          <t>ResourceType</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>674675-抢修</t>
+          <t>674675-类型B</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1111,12 +1111,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ImplementationCondition</t>
+          <t>ResourceUsageCondition</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>674675-抢修</t>
+          <t>674675-类型B</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1133,12 +1133,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Duration</t>
+          <t>ResourceQuantityOrQuality</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>674675-抢修</t>
+          <t>674675-类型B</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ResourceType</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>123445-物资</t>
+          <t>674675-类型B</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1177,17 +1177,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ResourceUsageCondition</t>
+          <t>BehaviorType</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>123445-物资</t>
+          <t>674675-救助</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>&lt;class 'bool'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
@@ -1199,17 +1199,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ResourceQuantityOrQuality</t>
+          <t>ImplementationCondition</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>123445-物资</t>
+          <t>674675-救助</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>&lt;class 'float'&gt;</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1221,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Location</t>
+          <t>Duration</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>123445-物资</t>
+          <t>674675-救助</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>123445</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>hasVehicleExplosionEffectOn</t>
+          <t>hasVehicleSpillageEffectOn</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1415,11 +1415,15 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>hasVehicleDepartureEffectOn</t>
+          <t>hasCollideEffectOn</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1429,7 +1433,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>hasExplodeEffectOn</t>
+          <t>hasVehicleTransportEffectOn</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1449,7 +1453,7 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>车辆</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1465,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>hasVehicleSpillageEffectOn</t>
+          <t>hasVehicleSpeedChangeEffectOn</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1475,7 +1479,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>hasVehicleSpeedChangeEffectOn</t>
+          <t>hasExplodeEffectOn</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1489,7 +1493,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>hasVehicleTransportEffectOn</t>
+          <t>hasVehicleDepartureEffectOn</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1503,15 +1507,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>hasCollideEffectOn</t>
+          <t>hasVehicleMotionEffectOn</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>HazardVehicle</t>
-        </is>
-      </c>
+      <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>hasVehicleMotionEffectOn</t>
+          <t>hasVehicleExplosionEffectOn</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>hasVehicleLaneChangeEffectOn</t>
+          <t>hasVehicleTurningEffectOn</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>hasVehicleTurningEffectOn</t>
+          <t>hasVehicleLaneChangeEffectOn</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>hasVehicleCollisionEffectOn</t>
+          <t>hasVehicleOverturnEffectOn</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>hasVehicleOverturnEffectOn</t>
+          <t>hasVehicleCollisionEffectOn</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -1649,17 +1649,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>associate123445-救助</t>
+          <t>associate674675-救助</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>123445-物资</t>
+          <t>674675-类型B</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>123445-救助</t>
+          <t>674675-救助</t>
         </is>
       </c>
     </row>
@@ -1671,17 +1671,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>associate3256-牵引</t>
+          <t>associate674675-抢修</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3256-人员</t>
+          <t>674675-人员</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3256-牵引</t>
+          <t>674675-抢修</t>
         </is>
       </c>
     </row>
@@ -1693,17 +1693,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>associate3256-物资</t>
+          <t>associate3256-牵引</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>3256-人员</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3256-物资</t>
+          <t>3256-牵引</t>
         </is>
       </c>
     </row>
@@ -1715,17 +1715,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>associate3256-人员</t>
+          <t>associate123445-救助</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>123445-物资</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3256-人员</t>
+          <t>123445-救助</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>3256-物资</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1781,17 +1781,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>associate674675-类型B</t>
+          <t>associate3256-物资</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>674675</t>
+          <t>3256</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>674675-类型B</t>
+          <t>3256-物资</t>
         </is>
       </c>
     </row>
@@ -1803,17 +1803,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>associate674675-医生</t>
+          <t>associate3256-人员</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>674675</t>
+          <t>3256</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>674675-医生</t>
+          <t>3256-人员</t>
         </is>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>associate674675-人员</t>
+          <t>associate674675-类型B</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>674675-人员</t>
+          <t>674675-类型B</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>associate674675-救助</t>
+          <t>associate674675-医生</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>674675-救助</t>
+          <t>674675-医生</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>associate674675-牵引</t>
+          <t>associate674675-人员</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>674675-牵引</t>
+          <t>674675-人员</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>associate674675-抢修</t>
+          <t>associate674675-牵引</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>674675-抢修</t>
+          <t>674675-牵引</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>FireFighting:ActionTransform</t>
+          <t>Tow:ActionTransform</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Tow:ActionTransform</t>
+          <t>FireFighting:ActionTransform</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>hasRoadControlEffectOn</t>
+          <t>hasFirefightingEffectOn</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>hasFirefightingEffectOn</t>
+          <t>hasVehicleTowingEffectOn</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -2043,7 +2043,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>hasVehicleTowingEffectOn</t>
+          <t>hasActionEffectOn</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>hasActionEffectOn</t>
+          <t>hasRoadControlEffectOn</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>

--- a/data/sysml2/3/owl/ScenarioElement_Prop.xlsx
+++ b/data/sysml2/3/owl/ScenarioElement_Prop.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RoadName</t>
+          <t>RoadName_Road</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -473,7 +473,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RoadType</t>
+          <t>RoadType_Road</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NumberOfLanes</t>
+          <t>NumberOfLanes_Road</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -517,7 +517,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TrafficVolume</t>
+          <t>TrafficVolume_Road</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -539,7 +539,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SegmentStartStakeNumber</t>
+          <t>SegmentStartStakeNumber_Road</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SegmentEndStakeNumber</t>
+          <t>SegmentEndStakeNumber_Road</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DesignSpeed</t>
+          <t>DesignSpeed_Road</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ClosureCondition</t>
+          <t>ClosureCondition_Road</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DamageConditon</t>
+          <t>RoadDamageCondition_Road</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PollutionCondition</t>
+          <t>PollutionCondition_Road</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -671,17 +671,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>VehicleType</t>
+          <t>RoadMaintenanceConditon_Road</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
@@ -693,12 +693,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CombustionCondition</t>
+          <t>RoadConstrucetionCondition_Road</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SpillCondition</t>
+          <t>TravelTime_Road</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>&lt;class 'bool'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -737,17 +737,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DrivingDirection</t>
+          <t>TrafficCapacity_Road</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -759,17 +759,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>VehiclePosition</t>
+          <t>SpeedLimit_Road</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -781,17 +781,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>VehicleSpeed</t>
+          <t>WeatherType_Meteorology</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>Meteorology</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>&lt;class 'float'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
@@ -803,17 +803,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DamageCondition</t>
+          <t>Rainfall_Meteorology</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>Meteorology</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>&lt;class 'bool'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -825,17 +825,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CollisionCondition</t>
+          <t>Visibility_Meteorology</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>Meteorology</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>&lt;class 'bool'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -847,17 +847,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WeatherType</t>
+          <t>WindSpeed_Meteorology</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>气象</t>
+          <t>Meteorology</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -869,12 +869,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Rainfall</t>
+          <t>WindForce_Meteorology</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>气象</t>
+          <t>Meteorology</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -891,17 +891,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Visibility</t>
+          <t>SnowfallIntensity_Meteorology</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>气象</t>
+          <t>Meteorology</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>&lt;class 'float'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WindSpeed</t>
+          <t>CasualtyCondition_passenger</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>气象</t>
+          <t>passenger</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>&lt;class 'float'&gt;</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
@@ -935,17 +935,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WindForce</t>
+          <t>vehicleType_HazardVehicle</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>气象</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>&lt;class 'float'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
@@ -957,17 +957,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SnowfallIntensity</t>
+          <t>CollideCondition_HazardVehicle</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>气象</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BreakdownCondition</t>
+          <t>CombustionCondition_HazardVehicle</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1001,12 +1001,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RollOverCondition</t>
+          <t>SpillCondition_HazardVehicle</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AbnormalSpeedCondition</t>
+          <t>BreakdownCondition_HazardVehicle</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
@@ -1045,12 +1045,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>IIIegalLaneOccupationCondition</t>
+          <t>RollOverCondition_HazardVehicle</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1067,12 +1067,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>EmergencyPeriod</t>
+          <t>AbnormalSpeedCondition_HazardVehicle</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1089,17 +1089,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ResourceType</t>
+          <t>IIIegalLaneOccupationCondition_HazardVehicle</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>674675-类型B</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
@@ -1111,17 +1111,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ResourceUsageCondition</t>
+          <t>drivingDirection_HazardVehicle</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>674675-类型B</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>&lt;class 'bool'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
@@ -1133,17 +1133,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ResourceQuantityOrQuality</t>
+          <t>position_HazardVehicle</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>674675-类型B</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>&lt;class 'float'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Location</t>
+          <t>VehicleSpeed_HazardVehicle</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>674675-类型B</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -1177,12 +1177,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BehaviorType</t>
+          <t>EmergencyPeriod_HazardVehicle</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>674675-救助</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1199,17 +1199,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ImplementationCondition</t>
+          <t>vehicleType_AffectedVehicle</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>674675-救助</t>
+          <t>AffectedVehicle</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>&lt;class 'bool'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1221,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Duration</t>
+          <t>CombustionCondition_AffectedVehicle</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>674675-救助</t>
+          <t>AffectedVehicle</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>&lt;class 'float'&gt;</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
@@ -1243,853 +1243,3269 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PlanName</t>
+          <t>SpillCondition_AffectedVehicle</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>123445</t>
+          <t>AffectedVehicle</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>associateWith</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+          <t>drivingDirection_AffectedVehicle</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>AffectedVehicle</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>consistComposition</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
+          <t>position_AffectedVehicle</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>AffectedVehicle</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>exhibitState</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
+          <t>VehicleSpeed_AffectedVehicle</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>AffectedVehicle</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>&lt;class 'float'&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>hasEffectOn</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
+          <t>DamageCondition_AffectedVehicle</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>AffectedVehicle</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>&lt;class 'bool'&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>stateTransform</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+          <t>PlanName_plan1</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>plan1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>associateRoad</t>
+          <t>ResourceType_plan1-人员</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>plan1-人员</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CollideTransform</t>
+          <t>ResourceUsageCondition_plan1-人员</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DriveState</t>
+          <t>plan1-人员</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CollideState</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ExplodeTransform</t>
+          <t>ResourceQuantityOrQuality_plan1-人员</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CollidedState</t>
+          <t>plan1-人员</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ExplodeState</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>hasVehicleSpillageEffectOn</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+          <t>Location_plan1-人员</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>plan1-人员</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>hasCollideEffectOn</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
+          <t>BehaviorType_plan1-救助</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>plan1-救助</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>hasVehicleTransportEffectOn</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+          <t>ImplementationCondition_plan1-救助</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>plan1-救助</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>&lt;class 'bool'&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>hasSpillEffectOn</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
+          <t>Duration_plan1-救助</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>plan1-救助</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>车辆</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>hasVehicleSpeedChangeEffectOn</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
+          <t>PlanName_14</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Class_14</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>hasExplodeEffectOn</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
+          <t>ResourceType_14-医生</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Class_14-医生</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>hasVehicleDepartureEffectOn</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
+          <t>ResourceUsageCondition_14-医生</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Class_14-医生</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>&lt;class 'bool'&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>hasVehicleMotionEffectOn</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
+          <t>ResourceQuantityOrQuality_14-医生</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Class_14-医生</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>&lt;class 'float'&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>hasVehicleExplosionEffectOn</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
+          <t>Location_14-医生</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Class_14-医生</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>consistpassenger</t>
+          <t>BehaviorType_14-救助</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>Class_14-救助</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>People</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SpillTransform</t>
+          <t>ImplementationCondition_14-救助</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CollideState</t>
+          <t>Class_14-救助</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SpillState</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>hasVehicleTurningEffectOn</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
+          <t>Duration_14-救助</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Class_14-救助</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>&lt;class 'float'&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>hasVehicleBreakdownEffectOn</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
+          <t>RoadName_23</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Class_23</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>hasVehicleLaneChangeEffectOn</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
+          <t>RoadType_23</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Class_23</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>hasVehicleOverturnEffectOn</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
+          <t>NumberOfLanes_23</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Class_23</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>&lt;class 'float'&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>hasVehicleCollisionEffectOn</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
+          <t>TrafficVolume_23</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Class_23</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>&lt;class 'float'&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>associate674675-救助</t>
+          <t>SegmentStartStakeNumber_23</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>674675-类型B</t>
+          <t>Class_23</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>674675-救助</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>associate674675-抢修</t>
+          <t>SegmentEndStakeNumber_23</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>674675-人员</t>
+          <t>Class_23</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>674675-抢修</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>associate3256-牵引</t>
+          <t>DesignSpeed_23</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>3256-人员</t>
+          <t>Class_23</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3256-牵引</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>associate123445-救助</t>
+          <t>ClosureCondition_23</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>123445-物资</t>
+          <t>Class_23</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>123445-救助</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>associate3256-救助</t>
+          <t>RoadDamageCondition_23</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>3256-物资</t>
+          <t>Class_23</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3256-救助</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>associate123445-物资</t>
+          <t>PollutionCondition_23</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>123445</t>
+          <t>Class_23</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>123445-物资</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>associate3256-物资</t>
+          <t>RoadMaintenanceConditon_23</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>Class_23</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3256-物资</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>associate3256-人员</t>
+          <t>RoadConstrucetionCondition_23</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>Class_23</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3256-人员</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>associate674675-类型B</t>
+          <t>FacilityType_2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>674675</t>
+          <t>Class_2</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>674675-类型B</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>associate674675-医生</t>
+          <t>FacilityLocation_2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>674675</t>
+          <t>Class_2</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>674675-医生</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>associate674675-人员</t>
+          <t>FacilityDamageStatus_2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>674675</t>
+          <t>Class_2</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>674675-人员</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>associate674675-牵引</t>
+          <t>IsDetached_1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>674675</t>
+          <t>Class_1</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>674675-牵引</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Rescue:ActionTransform</t>
+          <t>VehicleLoadTyoe_1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>idleState</t>
+          <t>Class_1</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>implementState</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Tow:ActionTransform</t>
+          <t>RoadName_hello</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>idleState</t>
+          <t>hello</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>implementState</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>FireFighting:ActionTransform</t>
+          <t>RoadType_hello</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>idleState</t>
+          <t>hello</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>implementState</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Aid:ActionTransform</t>
+          <t>NumberOfLanes_hello</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>idleState</t>
+          <t>hello</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>implementState</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>hasRoadRepairEffectOn</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
+          <t>TrafficVolume_hello</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>&lt;class 'float'&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>hasFirefightingEffectOn</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
+          <t>SegmentStartStakeNumber_hello</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>hasVehicleTowingEffectOn</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
+          <t>SegmentEndStakeNumber_hello</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>hasActionEffectOn</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
+          <t>DesignSpeed_hello</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>&lt;class 'float'&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>hasRoadControlEffectOn</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
+          <t>ClosureCondition_hello</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>&lt;class 'bool'&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>hasPersonnalRescueEffectOn</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
+          <t>RoadDamageCondition_hello</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>&lt;class 'bool'&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>DataProperty</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>hasRoadCleaningEffectOn</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
+          <t>PollutionCondition_hello</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>&lt;class 'bool'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>RoadMaintenanceConditon_hello</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>&lt;class 'bool'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>RoadConstrucetionCondition_hello</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>&lt;class 'bool'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>RoadName_hoa</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>RoadType_hoa</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>NumberOfLanes_hoa</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>&lt;class 'float'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>TrafficVolume_hoa</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>&lt;class 'float'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>SegmentStartStakeNumber_hoa</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>SegmentEndStakeNumber_hoa</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>DesignSpeed_hoa</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>&lt;class 'float'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ClosureCondition_hoa</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>&lt;class 'bool'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>RoadDamageCondition_hoa</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>&lt;class 'bool'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>PollutionCondition_hoa</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>&lt;class 'bool'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>RoadMaintenanceConditon_hoa</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>&lt;class 'bool'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>RoadConstrucetionCondition_hoa</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>&lt;class 'bool'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>TravelTime_hoa</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>&lt;class 'float'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>TrafficCapacity_hoa</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>&lt;class 'float'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>SpeedLimit_hoa</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>&lt;class 'float'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>RoadName_hob</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>hob</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>RoadType_hob</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>hob</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>NumberOfLanes_hob</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>hob</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>&lt;class 'float'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>TrafficVolume_hob</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>hob</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>&lt;class 'float'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>SegmentStartStakeNumber_hob</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>hob</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>SegmentEndStakeNumber_hob</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>hob</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>DesignSpeed_hob</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>hob</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>&lt;class 'float'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ClosureCondition_hob</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>hob</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>&lt;class 'bool'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>RoadDamageCondition_hob</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>hob</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>&lt;class 'bool'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>PollutionCondition_hob</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>hob</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>&lt;class 'bool'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>RoadMaintenanceConditon_hob</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>hob</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>&lt;class 'bool'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>RoadConstrucetionCondition_hob</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>hob</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>&lt;class 'bool'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>LaneType_lane1</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>lane1</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>LaneWidth_lane1</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>lane1</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>&lt;class 'float'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>DesignedSpeed_lane1</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>lane1</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>&lt;class 'float'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>VehicleTypeRestriction_lane1</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>lane1</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>&lt;class 'bool'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>RoadClosureStatus_lane1</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>lane1</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>&lt;class 'bool'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>PollutionStatus_lane1</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>lane1</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>&lt;class 'bool'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>DataProperty</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>CasualtyCondition_human1</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>human1</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>&lt;class 'bool'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>associateWith</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>consistComposition</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>hasEffectOn</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>IncludedVehicles_Road</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Road</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>IncludedLanes_Road</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Road</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>IncludedFacilities_Road</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Road</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>AffectedArea_Meteorology</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Meteorology</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Road</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>AffiliatedVehicle_passenger</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>passenger</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>DrivingRoadSegment_HazardVehicle</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>VehicleCargo_HazardVehicle</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Class_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>VehiclePassengers_HazardVehicle</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>passenger</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>VehicleComponents_HazardVehicle</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>VehicleMotion_HazardVehicle</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>VehicleTransport_HazardVehicle</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>VehicleDeparture_HazardVehicle</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>VehicleExplosion_HazardVehicle</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>VehicleSpillage_HazardVehicle</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>VehicleOverturn_HazardVehicle</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Road</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>VehicleBreakdown_HazardVehicle</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>VehicleCollision_HazardVehicle</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Road</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>VehicleTurning_HazardVehicle</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>VehicleLaneChange_HazardVehicle</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>VehicleSpeedChange_HazardVehicle</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>DrivingRoadSegment_AffectedVehicle</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>AffectedVehicle</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Road</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>VehicleCargo_AffectedVehicle</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>AffectedVehicle</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>VehiclePassengers_AffectedVehicle</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>AffectedVehicle</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>VehicleComponents_AffectedVehicle</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>AffectedVehicle</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>VehicleMotion_AffectedVehicle</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>AffectedVehicle</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>VehicleTransport_AffectedVehicle</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>AffectedVehicle</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>VehicleDeparture_AffectedVehicle</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>AffectedVehicle</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>VehicleExplosion_AffectedVehicle</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>AffectedVehicle</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>VehicleSpillage_AffectedVehicle</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>AffectedVehicle</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>VehicleSpeedChange_AffectedVehicle</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>AffectedVehicle</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>HasResource_plan1</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>plan1</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>plan1-人员</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>HasAction_plan1</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>plan1</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>plan1-救助</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>AssociatedBehavior_plan1-人员</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>plan1-人员</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>plan1-救助</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>InvolvedMaterials_plan1-救助</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>plan1-救助</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>ImplementingPersonnel_plan1-救助</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>plan1-救助</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>EmergencyVehicles_plan1-救助</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>plan1-救助</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>TargetOfImplementation_plan1-救助</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>plan1-救助</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Firefighting_plan1-救助</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>plan1-救助</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>PersonnalRescue_plan1-救助</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>plan1-救助</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>VehicleTowing_plan1-救助</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>plan1-救助</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>RoadCleaning_plan1-救助</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>plan1-救助</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>RoadRepair_plan1-救助</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>plan1-救助</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>RoadControl_plan1-救助</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>plan1-救助</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>HasResource_14</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Class_14</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Class_14-医生</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>HasAction_14</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Class_14</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Class_14-救助</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>AssociatedBehavior_14-医生</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Class_14-医生</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Class_14-救助</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>InvolvedMaterials_14-救助</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Class_14-救助</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>ImplementingPersonnel_14-救助</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Class_14-救助</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>EmergencyVehicles_14-救助</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Class_14-救助</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>TargetOfImplementation_14-救助</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Class_14-救助</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Firefighting_14-救助</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Class_14-救助</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>PersonnalRescue_14-救助</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Class_14-救助</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>VehicleTowing_14-救助</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Class_14-救助</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>RoadCleaning_14-救助</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Class_14-救助</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>RoadRepair_14-救助</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Class_14-救助</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>RoadControl_14-救助</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Class_14-救助</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>IncludedVehicles_23</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Class_23</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>IncludedLanes_23</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Class_23</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>IncludedFacilities_23</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Class_23</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>RoadFacilityOf_2</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Class_2</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>LoadedOn_1</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Class_1</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>IncludedVehicles_hello</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>IncludedLanes_hello</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>IncludedFacilities_hello</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>IncludedVehicles_hoa</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>IncludedLanes_hoa</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>IncludedFacilities_hoa</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>IncludedVehicles_hob</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>hob</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>IncludedLanes_hob</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>hob</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>lane1</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>IncludedFacilities_hob</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>hob</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Class_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>RoadSection_lane1</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>lane1</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>HasVehicles_lane1</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>lane1</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>AffiliatedVehicle_human1</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>human1</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
